--- a/Example.xlsx
+++ b/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbezirgan\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B324906-C220-4600-8795-6FE09DE61309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ECB7B4-2645-4F88-AEA4-E674EF767297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="1860" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
@@ -210,16 +210,16 @@
     <t>This is a Test Defect</t>
   </si>
   <si>
+    <t>TCSComments</t>
+  </si>
+  <si>
+    <t>OnShoreCom</t>
+  </si>
+  <si>
+    <t>New-Comment</t>
+  </si>
+  <si>
     <t>Closed</t>
-  </si>
-  <si>
-    <t>TCSComments</t>
-  </si>
-  <si>
-    <t>OnShoreCom</t>
-  </si>
-  <si>
-    <t>New-Comment</t>
   </si>
 </sst>
 </file>
@@ -1132,53 +1132,53 @@
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.88671875" style="1"/>
+    <col min="31" max="31" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="30" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,10 +1189,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1303,7 +1303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1311,13 +1311,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>33</v>
@@ -1396,7 +1396,7 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1404,13 +1404,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>44</v>
@@ -1489,7 +1489,7 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
     </row>
-    <row r="4" spans="1:41" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1497,13 +1497,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>51</v>
@@ -1582,13 +1582,13 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
     </row>
-    <row r="5" spans="1:41" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="13.8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E7" s="3"/>
     </row>
   </sheetData>
